--- a/topic_split/topic_24.xlsx
+++ b/topic_split/topic_24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>issue</t>
   </si>
@@ -22,34 +22,19 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
+    <t xml:space="preserve">translation banner appears at old emergencies as well, which are not even translated. Banner should appear only in case the content is really translated
+</t>
   </si>
   <si>
-    <t>[4.42778723e-308 2.42528844e-308 2.68220961e-308 2.31743530e-308
- 2.92925015e-308 3.96595061e-308 5.58199777e-308 4.12693184e-308
- 3.32049069e-308 2.69488476e-307 5.01968152e-308 3.24635735e-308
- 4.55236916e-308 3.06322058e-308 4.81597805e-308 1.45451126e-307
- 5.14461380e-308 5.04679187e-308 1.20215657e-307 2.24509955e-307
- 3.43679465e-308 7.91191324e-308 3.91615307e-308 1.00000000e+000
- 5.23330321e-308]</t>
-  </si>
-  <si>
-    <t>[4.26395805e-308 2.45028116e-308 2.74018087e-308 2.33820683e-308
- 2.94770940e-308 3.93916268e-308 5.68921125e-308 4.15805379e-308
- 3.41048143e-308 2.89149828e-307 5.13380238e-308 3.34280606e-308
- 4.66478642e-308 3.10877925e-308 4.82728106e-308 1.54680118e-307
- 5.03676379e-308 5.02338598e-308 1.28507708e-307 2.57420310e-307
- 3.51776278e-308 7.84183326e-308 3.96846750e-308 1.00000000e+000
- 5.49098667e-308]</t>
-  </si>
-  <si>
-    <t>[4.16815469e-308 2.47849917e-308 2.67650443e-308 2.36479059e-308
- 2.83694798e-308 3.75783313e-308 5.39742689e-308 3.96550785e-308
- 3.30564824e-308 3.25048072e-307 4.83070371e-308 3.25022326e-308
- 4.47762095e-308 3.13216040e-308 4.60008693e-308 1.39621437e-307
- 4.77280452e-308 4.81298807e-308 1.12671600e-307 2.02137181e-307
- 3.39783911e-308 7.11451851e-308 3.79055034e-308 1.00000000e+000
- 5.24944847e-308]</t>
+    <t xml:space="preserve">Auto-translations are missing for certain emergencies
+It looks like there are emergency pages, where the auto-translation was not triggered for some reason.
+There are some recent emergency pages affected by the error:
+https://go.ifrc.org/emergencies/6851/details
+https://go.ifrc.org/emergencies/6807/details
+https://go.ifrc.org/emergencies/6768/details
+https://go.ifrc.org/emergencies/6729/details
+Please investigate the reason and resolve the root cause.
+</t>
   </si>
 </sst>
 </file>
@@ -407,54 +392,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>123</v>
       </c>
       <c r="B2">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>142</v>
       </c>
       <c r="B3">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>182</v>
-      </c>
-      <c r="B4">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
